--- a/biology/Zoologie/Brooks_Falls/Brooks_Falls.xlsx
+++ b/biology/Zoologie/Brooks_Falls/Brooks_Falls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brooks Falls (en français : les chutes de Brooks) sont des petites chutes d'eau d'1,8 m de haut situées dans le Parc national et réserve de Katmai en Alaska. Elles sont localisées sur la rivière Brooks, à un mile et demi (2,4 km) du lac Brooks et à égale distance du lac Naknek. Ces chutes sont célèbres pour la grande population de grizzlis attirée par les saumons en frai de juillet à début septembre ; le pic de présence journalier étant au début de cette période avec en moyenne 25 individus[1].
-Le site est également le théâtre de vestiges archéologiques humains vieux d'environ 9 000 ans, parmi les plus anciens d'Amérique du Nord[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brooks Falls (en français : les chutes de Brooks) sont des petites chutes d'eau d'1,8 m de haut situées dans le Parc national et réserve de Katmai en Alaska. Elles sont localisées sur la rivière Brooks, à un mile et demi (2,4 km) du lac Brooks et à égale distance du lac Naknek. Ces chutes sont célèbres pour la grande population de grizzlis attirée par les saumons en frai de juillet à début septembre ; le pic de présence journalier étant au début de cette période avec en moyenne 25 individus.
+Le site est également le théâtre de vestiges archéologiques humains vieux d'environ 9 000 ans, parmi les plus anciens d'Amérique du Nord.
 			Vue aérienne des chutes en 2018
 			Échelle à saumons en 1951.
 </t>
